--- a/split_data/standard_in/taipei/fixed.xlsx
+++ b/split_data/standard_in/taipei/fixed.xlsx
@@ -2945,7 +2945,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
